--- a/excel.xlsx
+++ b/excel.xlsx
@@ -640,13 +640,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="General\ &quot;biji&quot;"/>
-    <numFmt numFmtId="178" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="@\ * &quot;:&quot;"/>
-    <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="@\ * &quot;:&quot;"/>
+    <numFmt numFmtId="180" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="General\ &quot;biji&quot;"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -676,9 +676,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,7 +691,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,6 +705,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -714,15 +788,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -737,54 +804,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,31 +819,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,61 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,73 +848,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +872,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,25 +1016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,59 +1027,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1094,6 +1041,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,159 +1083,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1288,19 +1288,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1308,7 +1308,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1365,13 +1365,13 @@
   </cellStyles>
   <dxfs count="32">
     <dxf>
-      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+      <numFmt numFmtId="180" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
       <alignment horizontal="left" wrapText="1"/>
     </dxf>
     <dxf>
@@ -1382,7 +1382,7 @@
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+      <numFmt numFmtId="180" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
       <alignment horizontal="left" wrapText="1"/>
     </dxf>
     <dxf>
@@ -1396,19 +1396,19 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+      <numFmt numFmtId="180" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
@@ -1421,7 +1421,7 @@
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -1461,11 +1461,11 @@
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="General\ &quot;biji&quot;"/>
+      <numFmt numFmtId="183" formatCode="General\ &quot;biji&quot;"/>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+      <numFmt numFmtId="180" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1503,8 +1503,8 @@
         <s v="Habbatussauda"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Keuntungan" numFmtId="182">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="500" maxValue="23000" count="8">
+    <cacheField name="Keuntungan" numFmtId="177">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="23000" count="8">
         <n v="3000"/>
         <n v="15000"/>
         <n v="23000"/>
@@ -1589,7 +1589,19 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="182" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -3013,7 +3025,7 @@
       </c>
       <c r="D2">
         <f ca="1" t="shared" ref="D2:D11" si="0">_xlfn.DAYS(C2,TODAY())</f>
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3028,7 +3040,7 @@
       </c>
       <c r="D3">
         <f ca="1" t="shared" si="0"/>
-        <v>-1496</v>
+        <v>-1497</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3043,7 +3055,7 @@
       </c>
       <c r="D4">
         <f ca="1" t="shared" si="0"/>
-        <v>-429</v>
+        <v>-430</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3058,7 +3070,7 @@
       </c>
       <c r="D5">
         <f ca="1" t="shared" si="0"/>
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3073,7 +3085,7 @@
       </c>
       <c r="D6">
         <f ca="1" t="shared" si="0"/>
-        <v>-636</v>
+        <v>-637</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3088,7 +3100,7 @@
       </c>
       <c r="D7">
         <f ca="1" t="shared" si="0"/>
-        <v>-1083</v>
+        <v>-1084</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3103,7 +3115,7 @@
       </c>
       <c r="D8">
         <f ca="1" t="shared" si="0"/>
-        <v>-494</v>
+        <v>-495</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3118,7 +3130,7 @@
       </c>
       <c r="D9">
         <f ca="1" t="shared" si="0"/>
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3133,7 +3145,7 @@
       </c>
       <c r="D10">
         <f ca="1" t="shared" si="0"/>
-        <v>-255</v>
+        <v>-256</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3148,7 +3160,7 @@
       </c>
       <c r="D11">
         <f ca="1" t="shared" si="0"/>
-        <v>-910</v>
+        <v>-911</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZEN-PROJECT\mabaiz\komputer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{8E23B251-666C-4456-A190-443D7DF41232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="umur" sheetId="4" r:id="rId1"/>
@@ -30,22 +24,10 @@
     <sheet name="tempat tanggal lahir" sheetId="17" r:id="rId15"/>
     <sheet name="nama tengah" sheetId="19" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId17"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -238,6 +220,27 @@
     <t>22 tahun</t>
   </si>
   <si>
+    <t>Sum of Keuntungan</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Habbatussauda</t>
+  </si>
+  <si>
+    <t>Peci</t>
+  </si>
+  <si>
+    <t>Siwak</t>
+  </si>
+  <si>
     <t>Bulan</t>
   </si>
   <si>
@@ -247,21 +250,6 @@
     <t>Keuntungan</t>
   </si>
   <si>
-    <t>Peci</t>
-  </si>
-  <si>
-    <t>Siwak</t>
-  </si>
-  <si>
-    <t>Habbatussauda</t>
-  </si>
-  <si>
-    <t>Sum of Keuntungan</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Alamat</t>
   </si>
   <si>
@@ -617,29 +605,26 @@
   </si>
   <si>
     <t>Gon</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="@\ * &quot;:&quot;"/>
-    <numFmt numFmtId="168" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="General\ &quot;biji&quot;"/>
-    <numFmt numFmtId="173" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="174" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="175" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="11">
+    <numFmt numFmtId="176" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="General\ &quot;biji&quot;"/>
+    <numFmt numFmtId="179" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="@\ * &quot;:&quot;"/>
+    <numFmt numFmtId="184" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="185" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="186" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,16 +651,353 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -683,15 +1005,258 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -700,57 +1265,170 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="32">
     <dxf>
-      <numFmt numFmtId="174" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="186" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="General\ &quot;biji&quot;"/>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -765,84 +1443,17 @@
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="178" formatCode="General\ &quot;biji&quot;"/>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-      <alignment horizontal="left" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-      <alignment horizontal="left" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -850,15 +1461,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="zen" refreshedDate="45490.942974537" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="9" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45490.942974537" refreshedBy="zen" recordCount="9">
   <cacheSource type="worksheet">
     <worksheetSource name="Table12"/>
   </cacheSource>
@@ -877,7 +1485,7 @@
         <s v="Habbatussauda"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Keuntungan" numFmtId="165">
+    <cacheField name="Keuntungan" numFmtId="182">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="23000" count="8">
         <n v="3000"/>
         <n v="15000"/>
@@ -890,11 +1498,6 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -949,7 +1552,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B85CFE5-B797-4D8D-8343-D41B3448ED6F}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" indent="0" outline="1" outlineData="1" showDrill="1" multipleFieldFilters="0">
   <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -968,7 +1571,19 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="182" showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -1007,20 +1622,17 @@
   <dataFields count="1">
     <dataField name="Sum of Keuntungan" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
   <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" compact="0" showAll="0">
@@ -1039,7 +1651,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="165" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="182" showAll="0">
       <items count="9">
         <item x="7"/>
         <item x="6"/>
@@ -1091,214 +1703,199 @@
     <dataField name="Sum of Keuntungan" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="16">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nama" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tanggal Lahir" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Umur">
-      <calculatedColumnFormula>DATEDIF(B2,TODAY(),"y")&amp;" tahun"</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="Nama" dataDxfId="1"/>
+    <tableColumn id="2" name="Tanggal Lahir" dataDxfId="2"/>
+    <tableColumn id="3" name="Umur"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table17" displayName="Table17" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Nama Depan" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Nama Belakang" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Nama Lengkap" dataDxfId="9"/>
+    <tableColumn id="1" name="Nama Depan" dataDxfId="21"/>
+    <tableColumn id="2" name="Nama Belakang" dataDxfId="22"/>
+    <tableColumn id="3" name="Nama Lengkap" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table18" displayName="Table18" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Judul Film" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Judulnya Aja" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Tahun" dataDxfId="6"/>
+    <tableColumn id="1" name="Judul Film" dataDxfId="24"/>
+    <tableColumn id="2" name="Judulnya Aja" dataDxfId="25"/>
+    <tableColumn id="3" name="Tahun" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table19" displayName="Table19" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Barang" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Banyaknya" dataDxfId="4"/>
+    <tableColumn id="1" name="Barang" dataDxfId="27"/>
+    <tableColumn id="2" name="Banyaknya" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table20" displayName="Table20" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Nama"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Nilai"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Ranking">
-      <calculatedColumnFormula>RANK(B2,$B$2:$B$6,0)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="Nama"/>
+    <tableColumn id="2" name="Nilai"/>
+    <tableColumn id="3" name="Ranking"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table21" displayName="Table21" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Tempat"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Tanggal Lahir" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Tempat Tanggal Lahir" dataDxfId="2"/>
+    <tableColumn id="1" name="Tempat"/>
+    <tableColumn id="2" name="Tanggal Lahir" dataDxfId="29"/>
+    <tableColumn id="3" name="Tempat Tanggal Lahir" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table24" displayName="Table24" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table24" displayName="Table24" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Nama Lengkap"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Nama Tengah" dataDxfId="1"/>
+    <tableColumn id="1" name="Nama Lengkap"/>
+    <tableColumn id="2" name="Nama Tengah" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0">
-  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0">
+  <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Nama" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Nominal" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Tanggal Jatuh Tempo" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Jatuh Tempo">
-      <calculatedColumnFormula>_xlfn.DAYS(C2,TODAY())</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="Nama" dataDxfId="3"/>
+    <tableColumn id="2" name="Nominal" dataDxfId="4"/>
+    <tableColumn id="3" name="Tanggal Jatuh Tempo" dataDxfId="5"/>
+    <tableColumn id="4" name="Jatuh Tempo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Nama Barang"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Januari" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Februari" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Maret" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Total" dataDxfId="22"/>
+    <tableColumn id="1" name="Nama Barang"/>
+    <tableColumn id="2" name="Januari" dataDxfId="7"/>
+    <tableColumn id="3" name="Februari" dataDxfId="8"/>
+    <tableColumn id="4" name="Maret" dataDxfId="9"/>
+    <tableColumn id="5" name="Total" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table10" displayName="Table10" ref="E1:H4" totalsRowShown="0">
-  <autoFilter ref="E1:H4" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="E1:H4" totalsRowShown="0">
+  <autoFilter ref="E1:H4"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Tanggal" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Nama Panggilan"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Nama Lengkap">
-      <calculatedColumnFormula>VLOOKUP(F2,$A$1:$C$11,2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Pelanggaran"/>
+    <tableColumn id="1" name="Tanggal" dataDxfId="11"/>
+    <tableColumn id="2" name="Nama Panggilan"/>
+    <tableColumn id="3" name="Nama Lengkap"/>
+    <tableColumn id="4" name="Pelanggaran"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table11" displayName="Table11" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Nama Panggilan" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Nama Lengkap" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Umur" dataDxfId="18"/>
+    <tableColumn id="1" name="Nama Panggilan" dataDxfId="12"/>
+    <tableColumn id="2" name="Nama Lengkap" dataDxfId="13"/>
+    <tableColumn id="3" name="Umur" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table12" displayName="Table12" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Bulan"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Jenis Barang"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Keuntungan" dataDxfId="17"/>
+    <tableColumn id="1" name="Bulan"/>
+    <tableColumn id="2" name="Jenis Barang"/>
+    <tableColumn id="3" name="Keuntungan" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table14" displayName="Table14" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Nama" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Alamat" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Kelas" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Bulan Diterima" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="ID">
-      <calculatedColumnFormula>_xlfn.TEXTJOIN("-",TRUE,B2:D2)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="Nama" dataDxfId="16"/>
+    <tableColumn id="2" name="Alamat" dataDxfId="17"/>
+    <tableColumn id="3" name="Kelas" dataDxfId="18"/>
+    <tableColumn id="4" name="Bulan Diterima" dataDxfId="19"/>
+    <tableColumn id="5" name="ID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table15" displayName="Table15" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Nomor"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Nama Barang"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Jumlah"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Harga Satuan"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Jumlah Harga"/>
+    <tableColumn id="1" name="Nomor"/>
+    <tableColumn id="2" name="Nama Barang"/>
+    <tableColumn id="3" name="Jumlah"/>
+    <tableColumn id="4" name="Harga Satuan"/>
+    <tableColumn id="5" name="Jumlah Harga"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table16" displayName="Table16" ref="A1:B11" totalsRowShown="0">
-  <autoFilter ref="A1:B11" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Tanggal" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Hari">
-      <calculatedColumnFormula>TEXT(A2,"dddd")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="Tanggal" dataDxfId="20"/>
+    <tableColumn id="2" name="Hari"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1556,26 +2153,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42222222222222" customWidth="1"/>
+    <col min="2" max="2" width="24.4222222222222" customWidth="1"/>
+    <col min="3" max="3" width="8.57037037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1586,128 +2183,129 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="15">
         <v>33116</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C11" ca="1" si="0">DATEDIF(B2,TODAY(),"y")&amp;" tahun"</f>
-        <v>33 tahun</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f ca="1" t="shared" ref="C2:C11" si="0">DATEDIF(B2,TODAY(),"y")&amp;" tahun"</f>
+        <v>34 tahun</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="15">
         <v>36537</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" t="shared" si="0"/>
         <v>24 tahun</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="20">
         <v>31142</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" t="shared" si="0"/>
         <v>39 tahun</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="20">
         <v>33931</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" t="shared" si="0"/>
         <v>31 tahun</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="20">
         <v>35963</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" t="shared" si="0"/>
         <v>26 tahun</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="20">
         <v>31818</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" t="shared" si="0"/>
         <v>37 tahun</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="20">
         <v>34964</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" t="shared" si="0"/>
         <v>28 tahun</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="20">
         <v>37233</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" t="shared" si="0"/>
         <v>22 tahun</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="20">
         <v>34058</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" t="shared" si="0"/>
         <v>31 tahun</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="20">
         <v>32704</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" t="shared" si="0"/>
         <v>35 tahun</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1715,29 +2313,30 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="11.4222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8">
         <v>45363</v>
       </c>
       <c r="B2" t="str">
@@ -1745,8 +2344,8 @@
         <v>Tuesday</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+    <row r="3" spans="1:2">
+      <c r="A3" s="8">
         <v>44196</v>
       </c>
       <c r="B3" t="str">
@@ -1754,8 +2353,8 @@
         <v>Thursday</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+    <row r="4" spans="1:2">
+      <c r="A4" s="9">
         <v>44941</v>
       </c>
       <c r="B4" t="str">
@@ -1763,8 +2362,8 @@
         <v>Sunday</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+    <row r="5" spans="1:2">
+      <c r="A5" s="9">
         <v>44387</v>
       </c>
       <c r="B5" t="str">
@@ -1772,8 +2371,8 @@
         <v>Saturday</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+    <row r="6" spans="1:2">
+      <c r="A6" s="9">
         <v>44827</v>
       </c>
       <c r="B6" t="str">
@@ -1781,8 +2380,8 @@
         <v>Friday</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+    <row r="7" spans="1:2">
+      <c r="A7" s="9">
         <v>45782</v>
       </c>
       <c r="B7" t="str">
@@ -1790,8 +2389,8 @@
         <v>Monday</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+    <row r="8" spans="1:2">
+      <c r="A8" s="9">
         <v>44153</v>
       </c>
       <c r="B8" t="str">
@@ -1799,8 +2398,8 @@
         <v>Wednesday</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+    <row r="9" spans="1:2">
+      <c r="A9" s="9">
         <v>45351</v>
       </c>
       <c r="B9" t="str">
@@ -1808,8 +2407,8 @@
         <v>Thursday</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+    <row r="10" spans="1:2">
+      <c r="A10" s="9">
         <v>45155</v>
       </c>
       <c r="B10" t="str">
@@ -1817,8 +2416,8 @@
         <v>Thursday</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+    <row r="11" spans="1:2">
+      <c r="A11" s="9">
         <v>44713</v>
       </c>
       <c r="B11" t="str">
@@ -1826,11 +2425,12 @@
         <v>Wednesday</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:1">
+      <c r="A13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1838,147 +2438,149 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703703703704" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="16.2814814814815" customWidth="1"/>
+    <col min="5" max="5" width="10.8518518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>121</v>
+      <c r="B4" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>123</v>
+      <c r="B5" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>125</v>
+      <c r="B6" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>127</v>
+      <c r="B7" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>131</v>
+      <c r="B9" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>133</v>
+      <c r="B10" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>135</v>
+      <c r="B11" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1986,136 +2588,137 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="A1" sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7111111111111" customWidth="1"/>
+    <col min="2" max="2" width="18.7111111111111" customWidth="1"/>
+    <col min="3" max="3" width="8.71111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2">
         <v>2014</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>144</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>146</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>148</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>150</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>152</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>154</v>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>156</v>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>158</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C11" s="1">
         <v>2017</v>
@@ -2123,6 +2726,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2130,93 +2734,95 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28148148148148" customWidth="1"/>
+    <col min="2" max="2" width="12.7111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="3">
+        <v>164</v>
+      </c>
+      <c r="B2" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="3">
+        <v>165</v>
+      </c>
+      <c r="B3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="3">
+        <v>166</v>
+      </c>
+      <c r="B4" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <f>SUM(B2:B6)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2224,32 +2830,33 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42222222222222" customWidth="1"/>
+    <col min="2" max="2" width="7.42222222222222" customWidth="1"/>
+    <col min="3" max="3" width="10.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2261,9 +2868,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B3">
         <v>90</v>
@@ -2273,9 +2880,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B4">
         <v>80</v>
@@ -2285,9 +2892,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B5">
         <v>99</v>
@@ -2297,9 +2904,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B6">
         <v>97</v>
@@ -2311,6 +2918,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2318,132 +2926,136 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="A1" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.2814814814815" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="28.5703703703704" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2">
         <v>44816</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2">
         <v>37257</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B4" s="2">
         <v>45277</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="A1" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.2814814814815" customWidth="1"/>
+    <col min="2" max="2" width="15.4222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2451,22 +3063,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42222222222222" customWidth="1"/>
+    <col min="2" max="2" width="26.7111111111111" customWidth="1"/>
+    <col min="3" max="3" width="25.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="14.5703703703704" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2480,163 +3093,164 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="17">
         <v>300000</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="15">
         <v>45535</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D11" ca="1" si="0">_xlfn.DAYS(C2,TODAY())</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f ca="1" t="shared" ref="D2:D11" si="0">_xlfn.DAYS(C2,TODAY())</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="18">
         <v>5000</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="15">
         <v>43994</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+        <f ca="1" t="shared" si="0"/>
+        <v>-1541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="19">
         <v>150000</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="20">
         <v>45061</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+        <f ca="1" t="shared" si="0"/>
+        <v>-474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="19">
         <v>75000</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="20">
         <v>45627</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+        <f ca="1" t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="19">
         <v>250000</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="20">
         <v>44854</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+        <f ca="1" t="shared" si="0"/>
+        <v>-681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="19">
         <v>50000</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="20">
         <v>44407</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1085</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+        <f ca="1" t="shared" si="0"/>
+        <v>-1128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="19">
         <v>100000</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="20">
         <v>44996</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+        <f ca="1" t="shared" si="0"/>
+        <v>-539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="19">
         <v>200000</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="20">
         <v>45557</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+        <f ca="1" t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="19">
         <v>120000</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="20">
         <v>45235</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+        <f ca="1" t="shared" si="0"/>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="19">
         <v>90000</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="20">
         <v>44580</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-912</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>-955</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2644,22 +3258,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8518518518519" customWidth="1"/>
+    <col min="2" max="3" width="11.2814814814815" customWidth="1"/>
+    <col min="4" max="4" width="10.2814814814815" customWidth="1"/>
+    <col min="5" max="5" width="11.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2676,80 +3291,81 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="11">
         <v>200000</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="11">
         <v>100000</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <v>50000</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="11">
         <f>SUM(B2:D2)</f>
         <v>350000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="11">
         <v>12000</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="11">
         <v>35000</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <v>20000</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="11">
         <f>SUM(B3:D3)</f>
         <v>67000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="11">
         <v>10000</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="11">
         <v>23000</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="11">
         <v>500</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="11">
         <f>SUM(B4:D4)</f>
         <v>33500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="11">
         <f>SUM(B2:B4)</f>
         <v>222000</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
         <f>SUM(C2:C4)</f>
         <v>158000</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <f>SUM(D2:D4)</f>
         <v>70500</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2757,25 +3373,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703703703704" customWidth="1"/>
+    <col min="2" max="2" width="16.2814814814815" customWidth="1"/>
+    <col min="3" max="3" width="8.57037037037037" customWidth="1"/>
+    <col min="5" max="5" width="24.7111111111111" customWidth="1"/>
+    <col min="6" max="6" width="17.5703703703704" customWidth="1"/>
+    <col min="7" max="7" width="16.2814814814815" customWidth="1"/>
+    <col min="8" max="8" width="20.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2798,7 +3415,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2808,7 +3425,7 @@
       <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="15">
         <v>44816</v>
       </c>
       <c r="F2" t="s">
@@ -2822,7 +3439,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2832,7 +3449,7 @@
       <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <v>44817</v>
       </c>
       <c r="F3" t="s">
@@ -2846,17 +3463,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="15">
         <v>45214</v>
       </c>
       <c r="F4" t="s">
@@ -2870,86 +3487,87 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -2958,33 +3576,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B583F5D-1822-4800-851A-AC3A66685935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703703703704" customWidth="1"/>
+    <col min="2" max="2" width="16.2814814814815" customWidth="1"/>
+    <col min="3" max="3" width="7.28148148148148" customWidth="1"/>
+    <col min="4" max="4" width="6.42222222222222" customWidth="1"/>
+    <col min="5" max="5" width="11.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>190</v>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2996,12 +3615,12 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="B5" s="1">
         <v>5000</v>
@@ -3016,9 +3635,9 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>65</v>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="B6" s="1">
         <v>12000</v>
@@ -3033,9 +3652,9 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>66</v>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="B7" s="1">
         <v>10000</v>
@@ -3050,9 +3669,9 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>69</v>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="B8" s="1">
         <v>27000</v>
@@ -3069,136 +3688,139 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="A1" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42222222222222" customWidth="1"/>
+    <col min="2" max="2" width="14.5703703703704" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="8">
+        <v>67</v>
+      </c>
+      <c r="C2" s="11">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="8">
+        <v>68</v>
+      </c>
+      <c r="C3" s="11">
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="8">
+        <v>66</v>
+      </c>
+      <c r="C4" s="11">
         <v>23000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="8">
+        <v>67</v>
+      </c>
+      <c r="C5" s="11">
         <v>12000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="8">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="8">
+        <v>66</v>
+      </c>
+      <c r="C7" s="11">
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="8">
+        <v>67</v>
+      </c>
+      <c r="C8" s="11">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="8">
+        <v>68</v>
+      </c>
+      <c r="C9" s="11">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="8">
+        <v>66</v>
+      </c>
+      <c r="C10" s="11">
         <v>12000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -3206,31 +3828,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5703703703704" customWidth="1"/>
+    <col min="2" max="4" width="10.2814814814815" customWidth="1"/>
+    <col min="5" max="5" width="11.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3242,290 +3865,292 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="11">
+        <v>23000</v>
+      </c>
+      <c r="C5" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>12000</v>
+      </c>
+      <c r="E5" s="11">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="8">
-        <v>23000</v>
-      </c>
-      <c r="C5" s="8">
-        <v>5000</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="B6" s="11">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="11">
         <v>12000</v>
       </c>
-      <c r="E5" s="8">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="11">
+        <v>15000</v>
+      </c>
+      <c r="C7" s="11">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="11">
+        <v>500</v>
+      </c>
+      <c r="E7" s="11">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="8">
-        <v>3000</v>
-      </c>
-      <c r="C6" s="8">
-        <v>12000</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="8">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="8">
-        <v>15000</v>
-      </c>
-      <c r="C7" s="8">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="8">
-        <v>500</v>
-      </c>
-      <c r="E7" s="8">
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="B8" s="11">
         <v>41000</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="11">
         <v>27000</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="11">
         <v>13500</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="11">
         <v>81500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42222222222222" customWidth="1"/>
+    <col min="2" max="2" width="9.57037037037037" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="16.5703703703704" customWidth="1"/>
+    <col min="5" max="5" width="12.4222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E11" si="0">_xlfn.TEXTJOIN("-",TRUE,B2:D2)</f>
         <v>SMD-IV-JAN</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
         <v>BPN-I-MAR</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>JKT-II-FEB</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>86</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>BDG-III-APR</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>88</v>
+      <c r="B6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>MLG-IV-MEI</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>91</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>SBY-V-JUN</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>94</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>SMG-VI-JUL</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>97</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>DIY-VII-AGU</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>100</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>SMR-VIII-SEP</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>103</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -3534,6 +4159,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -3541,144 +4167,146 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.71111111111111" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.14074074074074" customWidth="1"/>
+    <col min="4" max="4" width="13.2814814814815" customWidth="1"/>
+    <col min="5" max="5" width="13.1407407407407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <v>10000</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="11">
         <f t="shared" ref="E2:E6" si="0">C2*D2</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <v>3000</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="11">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="11">
         <v>8000</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="11">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>45000</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <f>A5+1</f>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="11">
         <v>3500</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="11">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="s">
+    <row r="7" spans="4:5">
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="11">
         <f>SUM(E2:E6)</f>
         <v>235000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -612,17 +612,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="General\ &quot;biji&quot;"/>
-    <numFmt numFmtId="179" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="@\ * &quot;:&quot;"/>
-    <numFmt numFmtId="184" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="185" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="186" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="@\ * &quot;:&quot;"/>
+    <numFmt numFmtId="179" formatCode="General\ &quot;biji&quot;"/>
+    <numFmt numFmtId="180" formatCode="[$-421]dddd\,\ dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="181" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -667,13 +667,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -683,21 +676,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,14 +705,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -728,10 +714,33 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,21 +754,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,6 +775,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -789,17 +797,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -812,37 +812,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,13 +848,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,19 +878,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,31 +956,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,61 +986,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,6 +1024,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1035,17 +1050,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,159 +1093,155 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1254,9 +1254,9 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1265,7 +1265,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1273,7 +1273,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1281,16 +1281,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1347,24 +1347,24 @@
   </cellStyles>
   <dxfs count="32">
     <dxf>
-      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="183" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+      <numFmt numFmtId="181" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
       <alignment horizontal="left" wrapText="1"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+      <numFmt numFmtId="181" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
       <alignment horizontal="left" wrapText="1"/>
     </dxf>
     <dxf>
@@ -1378,19 +1378,19 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="183" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="183" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="183" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="183" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+      <numFmt numFmtId="181" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
@@ -1403,7 +1403,7 @@
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="183" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -1443,11 +1443,11 @@
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="General\ &quot;biji&quot;"/>
+      <numFmt numFmtId="179" formatCode="General\ &quot;biji&quot;"/>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+      <numFmt numFmtId="181" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1463,6 +1463,753 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4452620" y="1229360"/>
+          <a:ext cx="3562350" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95885</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>416560</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5887085" y="1924685"/>
+          <a:ext cx="4114800" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619760</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>534035</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5088890" y="1648460"/>
+          <a:ext cx="4467225" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>391160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="505460"/>
+          <a:ext cx="1895475" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219710</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2459355" y="1296035"/>
+          <a:ext cx="2257425" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>924560</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>386715</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>181610</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1891665" y="1505585"/>
+          <a:ext cx="5572125" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>105410</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3166110" y="1162685"/>
+          <a:ext cx="3076575" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>410210</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553710" y="1257935"/>
+          <a:ext cx="5153025" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581660</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>612140</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581660" y="1791335"/>
+          <a:ext cx="5086350" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>648335</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4284980" y="1496060"/>
+          <a:ext cx="3648075" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1475740</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4119245" y="3305810"/>
+          <a:ext cx="6772275" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="715010"/>
+          <a:ext cx="3181350" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26035</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2095500"/>
+          <a:ext cx="5229225" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>343535</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6403340" y="1810385"/>
+          <a:ext cx="4724400" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1010285</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3312160" y="1734185"/>
+          <a:ext cx="4572000" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95885</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>353060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3376930" y="1276985"/>
+          <a:ext cx="2533650" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1485,7 +2232,7 @@
         <s v="Habbatussauda"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Keuntungan" numFmtId="182">
+    <cacheField name="Keuntungan" numFmtId="183">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="23000" count="8">
         <n v="3000"/>
         <n v="15000"/>
@@ -1571,7 +2318,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="182" showAll="0">
+    <pivotField dataField="1" numFmtId="183" showAll="0">
       <items count="9">
         <item x="7"/>
         <item x="6"/>
@@ -1651,7 +2398,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="182" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="183" showAll="0">
       <items count="9">
         <item x="7"/>
         <item x="6"/>
@@ -2162,7 +2909,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -2306,8 +3053,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2318,7 +3066,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2431,8 +3179,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2443,7 +3192,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A1" sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2581,8 +3330,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2727,8 +3477,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2739,7 +3490,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="A1" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2823,8 +3574,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2835,7 +3587,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A1" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -2919,8 +3671,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2992,8 +3745,9 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3004,7 +3758,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -3056,8 +3810,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3065,18 +3820,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A1" sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.42222222222222" customWidth="1"/>
-    <col min="2" max="2" width="26.7111111111111" customWidth="1"/>
-    <col min="3" max="3" width="25.8518518518519" customWidth="1"/>
-    <col min="4" max="4" width="14.5703703703704" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="10.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="24.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3105,7 +3860,7 @@
       </c>
       <c r="D2">
         <f ca="1" t="shared" ref="D2:D11" si="0">_xlfn.DAYS(C2,TODAY())</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3120,7 +3875,7 @@
       </c>
       <c r="D3">
         <f ca="1" t="shared" si="0"/>
-        <v>-1541</v>
+        <v>-1550</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3135,7 +3890,7 @@
       </c>
       <c r="D4">
         <f ca="1" t="shared" si="0"/>
-        <v>-474</v>
+        <v>-483</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3150,7 +3905,7 @@
       </c>
       <c r="D5">
         <f ca="1" t="shared" si="0"/>
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3165,7 +3920,7 @@
       </c>
       <c r="D6">
         <f ca="1" t="shared" si="0"/>
-        <v>-681</v>
+        <v>-690</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3180,7 +3935,7 @@
       </c>
       <c r="D7">
         <f ca="1" t="shared" si="0"/>
-        <v>-1128</v>
+        <v>-1137</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3195,10 +3950,10 @@
       </c>
       <c r="D8">
         <f ca="1" t="shared" si="0"/>
-        <v>-539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -3210,10 +3965,12 @@
       </c>
       <c r="D9">
         <f ca="1" t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -3225,10 +3982,12 @@
       </c>
       <c r="D10">
         <f ca="1" t="shared" si="0"/>
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-309</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -3240,19 +3999,63 @@
       </c>
       <c r="D11">
         <f ca="1" t="shared" si="0"/>
-        <v>-955</v>
-      </c>
+        <v>-964</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" s="5"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="5:7">
+      <c r="E13" s="5"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="5:7">
+      <c r="E14" s="5"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15" s="5"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16" s="5"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="5"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="5"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D11">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H18">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3263,7 +4066,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -3366,8 +4169,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3378,7 +4182,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3568,9 +4372,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3821,8 +4626,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3833,7 +4639,7 @@
   <dimension ref="A3:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -3939,6 +4745,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3948,7 +4755,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A1" sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -4160,8 +4967,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4172,7 +4980,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="A1" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -4307,8 +5115,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>